--- a/report_outline.xlsx
+++ b/report_outline.xlsx
@@ -4311,8 +4311,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="788c3c3fb6df8881173b667f5312eb77">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="930821863b30b667ea45f9f5ab07f7a3" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
     <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
     <xsd:element name="properties">
@@ -4585,20 +4585,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDA72F39-8EC6-425E-821D-9B02C9FDBE88}"/>
 </file>